--- a/LambdaL_Out.xlsx
+++ b/LambdaL_Out.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilyas\PycharmProjects\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AC629B-E167-4439-B471-4E3B859E1518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CCA9AE-5783-4867-82CD-3E8759A5C138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66CD5F13-499B-45D1-87E7-2E18829EF72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -109,6 +112,3476 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Liefergrad </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>für die Zusammensetzung</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>x1 = 0.1 x2 = 0.5 x3 = 0.4</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32352229462553478"/>
+          <c:y val="2.3598812750543825E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7633724869327273E-2"/>
+          <c:y val="0.11560796157460859"/>
+          <c:w val="0.77984071818395584"/>
+          <c:h val="0.77058464768190704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>20 °C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2495069033530573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5442890442890442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894566971490048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29020979020979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7520172135556749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2803478572709337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8807602653756499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5589922897615205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3209610901918589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.83969895000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82407779000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80610380999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78565538000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76257408000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73659671999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70746478000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67517720000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63934133000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F62B-4007-B761-8B9AD3C7A52E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>30 °C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2495069033530573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5442890442890442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894566971490048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29020979020979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7520172135556749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2803478572709337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8807602653756499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5589922897615205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3209610901918589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$13:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.84570018999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83003850000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81209100999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79155677999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76837343000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74223435000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71299033000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68058439000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64467381999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F62B-4007-B761-8B9AD3C7A52E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>40 °C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$F$22:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2495069033530573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5442890442890442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894566971490048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29020979020979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7520172135556749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2803478572709337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8807602653756499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5589922897615205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3209610901918589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$23:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.85147919999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83577467000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81768604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79710683000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77377609999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74749505000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71817388999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68562356000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64940215000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F62B-4007-B761-8B9AD3C7A52E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>50 °C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$F$32:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2495069033530573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5442890442890442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894566971490048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29020979020979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7520172135556749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2803478572709337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8807602653756499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5589922897615205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3209610901918589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$33:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.85689090000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84102343999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82297695999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80233083000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77887534999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75256157999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72310304999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69039666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65404019999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F62B-4007-B761-8B9AD3C7A52E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>60 °C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$F$42:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2495069033530573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5442890442890442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894566971490048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29020979020979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7520172135556749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2803478572709337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8807602653756499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5589922897615205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3209610901918589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$43:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.86204840000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84617562999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82796442999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80731162999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78377116999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75734301000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72781815000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69485901999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65851742999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F62B-4007-B761-8B9AD3C7A52E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1626904383"/>
+        <c:axId val="786765151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1626904383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Druckverhältnis</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786765151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="786765151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Liefergrad</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626904383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61258633031477305"/>
+          <c:y val="0.50224756496590039"/>
+          <c:w val="0.23106191023548653"/>
+          <c:h val="0.22124041801487532"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Liefergrad </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>für die Zusammensetzung</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>x1 = 0.4 x2 = 0.3 x3 = 0.3</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32352229462553478"/>
+          <c:y val="2.3598812750543825E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7633724869327273E-2"/>
+          <c:y val="0.11560796157460859"/>
+          <c:w val="0.77984071818395584"/>
+          <c:h val="0.77058464768190704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>20 °C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2495069033530573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5442890442890442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894566971490048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29020979020979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7520172135556749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2803478572709337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8807602653756499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5589922897615205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3209610901918589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$53:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.85337244000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83750387000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81915762000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79823993000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77447312000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74755572999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71743181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68384252000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64640465999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B61-475B-8639-70E5DE29C024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>30 °C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2495069033530573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5442890442890442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894566971490048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29020979020979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7520172135556749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2803478572709337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8807602653756499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5589922897615205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3209610901918589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$63:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.85929800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84328345000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82492231999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80395742999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78009481999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75315189999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72295774000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68912132999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65166362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B61-475B-8639-70E5DE29C024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>40 °C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$F$22:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2495069033530573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5442890442890442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894566971490048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29020979020979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7520172135556749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2803478572709337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8807602653756499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5589922897615205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3209610901918589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$73:$G$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.86479883999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84881123999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83037656999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80929317999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78538525999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75837781999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72806718000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69416310999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65664582000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B61-475B-8639-70E5DE29C024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>50 °C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$F$32:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2495069033530573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5442890442890442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894566971490048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29020979020979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7520172135556749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2803478572709337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8807602653756499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5589922897615205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3209610901918589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$83:$G$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.87004592000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85397487000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83550225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81437022000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79040025000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76337392999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73292475999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69897039000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66124970000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B61-475B-8639-70E5DE29C024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>60 °C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$F$42:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2495069033530573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5442890442890442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8894566971490048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29020979020979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7520172135556749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2803478572709337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8807602653756499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5589922897615205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3209610901918589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$93:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.87500982999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85886399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84035017999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81917812999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79516383000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76794704999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73753626999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70342382000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66555858999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0B61-475B-8639-70E5DE29C024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1626904383"/>
+        <c:axId val="786765151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1626904383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Druckverhältnis</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786765151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="786765151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Liefergrad</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626904383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61258633031477305"/>
+          <c:y val="0.50224756496590039"/>
+          <c:w val="0.23106191023548653"/>
+          <c:h val="0.22124041801487532"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>623889</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FEBA24-8FFE-429F-8B49-494B5C60882D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>90489</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1F99AE-ED88-4C36-821A-6A3171F756B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3">
+            <v>1.2495069033530573</v>
+          </cell>
+          <cell r="G3">
+            <v>0.15693661</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>1.5442890442890442</v>
+          </cell>
+          <cell r="G4">
+            <v>0.26247860000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>1.8894566971490048</v>
+          </cell>
+          <cell r="G5">
+            <v>0.33734774000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>2.29020979020979</v>
+          </cell>
+          <cell r="G6">
+            <v>0.39233085000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>2.7520172135556749</v>
+          </cell>
+          <cell r="G7">
+            <v>0.4336622</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>3.2803478572709337</v>
+          </cell>
+          <cell r="G8">
+            <v>0.46504173999999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>3.8807602653756499</v>
+          </cell>
+          <cell r="G9">
+            <v>0.48885345000000002</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>4.5589922897615205</v>
+          </cell>
+          <cell r="G10">
+            <v>0.50666968000000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>5.3209610901918589</v>
+          </cell>
+          <cell r="G11">
+            <v>0.51938441000000002</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13">
+            <v>0.16005481999999999</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14">
+            <v>0.26715229000000001</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15">
+            <v>0.34281065999999999</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>0.39824342000000001</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>0.43983925000000001</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>0.47137767000000003</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
+            <v>0.49533059000000002</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20">
+            <v>0.51320502999999995</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21">
+            <v>0.52605796999999999</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22">
+            <v>1</v>
+          </cell>
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23">
+            <v>1.2495069033530573</v>
+          </cell>
+          <cell r="G23">
+            <v>0.16316368000000001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>1.5442890442890442</v>
+          </cell>
+          <cell r="G24">
+            <v>0.27170068000000003</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>1.8894566971490048</v>
+          </cell>
+          <cell r="G25">
+            <v>0.34817380999999997</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>2.29020979020979</v>
+          </cell>
+          <cell r="G26">
+            <v>0.40404910999999999</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="F27">
+            <v>2.7520172135556749</v>
+          </cell>
+          <cell r="G27">
+            <v>0.44585370000000002</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="F28">
+            <v>3.2803478572709337</v>
+          </cell>
+          <cell r="G28">
+            <v>0.47758936000000002</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="F29">
+            <v>3.8807602653756499</v>
+          </cell>
+          <cell r="G29">
+            <v>0.50158654999999996</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="F30">
+            <v>4.5589922897615205</v>
+          </cell>
+          <cell r="G30">
+            <v>0.51957704999999998</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="F31">
+            <v>5.3209610901918589</v>
+          </cell>
+          <cell r="G31">
+            <v>0.53246223999999998</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="F32">
+            <v>1</v>
+          </cell>
+          <cell r="G32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="F33">
+            <v>1.2495069033530573</v>
+          </cell>
+          <cell r="G33">
+            <v>0.16624952000000001</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="F34">
+            <v>1.5442890442890442</v>
+          </cell>
+          <cell r="G34">
+            <v>0.27623529000000002</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="F35">
+            <v>1.8894566971490048</v>
+          </cell>
+          <cell r="G35">
+            <v>0.35343827999999999</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="F36">
+            <v>2.29020979020979</v>
+          </cell>
+          <cell r="G36">
+            <v>0.40975619000000002</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="F37">
+            <v>2.7520172135556749</v>
+          </cell>
+          <cell r="G37">
+            <v>0.45177919999999999</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="F38">
+            <v>3.2803478572709337</v>
+          </cell>
+          <cell r="G38">
+            <v>0.48360913999999999</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="F39">
+            <v>3.8807602653756499</v>
+          </cell>
+          <cell r="G39">
+            <v>0.50771935000000001</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="F40">
+            <v>4.5589922897615205</v>
+          </cell>
+          <cell r="G40">
+            <v>0.52577067</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="F41">
+            <v>5.3209610901918589</v>
+          </cell>
+          <cell r="G41">
+            <v>0.53871491000000005</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="F42">
+            <v>1</v>
+          </cell>
+          <cell r="G42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="F43">
+            <v>1.2495069033530573</v>
+          </cell>
+          <cell r="G43">
+            <v>0.16931492000000001</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="F44">
+            <v>1.5442890442890442</v>
+          </cell>
+          <cell r="G44">
+            <v>0.28074992999999998</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="F45">
+            <v>1.8894566971490048</v>
+          </cell>
+          <cell r="G45">
+            <v>0.35867006000000001</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="F46">
+            <v>2.29020979020979</v>
+          </cell>
+          <cell r="G46">
+            <v>0.41531467999999999</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>2.7520172135556749</v>
+          </cell>
+          <cell r="G47">
+            <v>0.45758968</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48">
+            <v>3.2803478572709337</v>
+          </cell>
+          <cell r="G48">
+            <v>0.48953908000000002</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="F49">
+            <v>3.8807602653756499</v>
+          </cell>
+          <cell r="G49">
+            <v>0.51370815999999997</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>4.5589922897615205</v>
+          </cell>
+          <cell r="G50">
+            <v>0.53178645999999996</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
+            <v>5.3209610901918589</v>
+          </cell>
+          <cell r="G51">
+            <v>0.54481018000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1EF299-A370-4476-931F-F2BE1636954F}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G101"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,5 +6511,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>